--- a/SENAI-Sprint.1-BD/1.2/Modelo-Fisico.xlsx
+++ b/SENAI-Sprint.1-BD/1.2/Modelo-Fisico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Python Scripts\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690BBEA7-47CE-4E22-9000-A7C3A2103BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54121D2C-E853-43A4-8887-4B2B16F14A3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00267F44-AF11-48F9-B871-E9C2996A54E6}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00267F44-AF11-48F9-B871-E9C2996A54E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio 1.2" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Nome</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Aluguel</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>idVeículo</t>
   </si>
   <si>
@@ -133,15 +127,20 @@
   </si>
   <si>
     <t>21.314.559/0001-66</t>
+  </si>
+  <si>
+    <t>Dia da Retirada</t>
+  </si>
+  <si>
+    <t>Dia de devolução</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -288,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,9 +308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -681,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EB601E-DAAA-4FC1-9B5C-99732B27A137}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +690,12 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -714,34 +712,32 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="18" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -763,39 +759,36 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="5">
@@ -808,39 +801,36 @@
         <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>43864</v>
       </c>
       <c r="M4" s="8">
-        <v>43864</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0.65763888888888888</v>
+        <v>43865</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
       </c>
       <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
         <v>4</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="5">
@@ -853,39 +843,36 @@
         <v>2</v>
       </c>
       <c r="I5" s="5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>44034</v>
       </c>
       <c r="M5" s="8">
-        <v>44034</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0.41666666666666669</v>
+        <v>44037</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2</v>
       </c>
       <c r="O5" s="7">
         <v>2</v>
       </c>
-      <c r="P5" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="5">
@@ -898,30 +885,27 @@
         <v>3</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="7">
         <v>3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>44089</v>
       </c>
       <c r="M6" s="8">
         <v>44089</v>
       </c>
-      <c r="N6" s="9">
-        <v>0.52083333333333337</v>
+      <c r="N6" s="7">
+        <v>3</v>
       </c>
       <c r="O6" s="7">
         <v>3</v>
       </c>
-      <c r="P6" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -937,30 +921,27 @@
         <v>2</v>
       </c>
       <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="7">
         <v>4</v>
       </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="7">
-        <v>4</v>
+      <c r="L7" s="8">
+        <v>44228</v>
       </c>
       <c r="M7" s="8">
-        <v>44228</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.79166666666666663</v>
+        <v>44237</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2</v>
       </c>
       <c r="O7" s="7">
-        <v>2</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -977,9 +958,8 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -996,151 +976,146 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>23</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15" t="s">
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="15">
-        <v>1</v>
-      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>27</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="15">
-        <v>2</v>
-      </c>
-      <c r="M13" s="15" t="s">
+      <c r="K13" s="14">
+        <v>2</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="15">
-        <v>2</v>
-      </c>
+      <c r="M13" s="14">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>3</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>22</v>
       </c>
       <c r="I14" s="1"/>
@@ -1151,9 +1126,8 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1170,16 +1144,15 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="K2:O2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
